--- a/medicine/Enfance/Anda_Cantegrive/Anda_Cantegrive.xlsx
+++ b/medicine/Enfance/Anda_Cantegrive/Anda_Cantegrive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anda Cantegrive, nom de plume de Jeanne Dubreuilh[2], née le 27 septembre 1873 à Bordeaux et morte le 10 avril 1974 à Talence, est une écrivaine de langue française, ayant écrit des romans pour jeunes filles dans la Collection Stella et des romans historiques se situant à Bordeaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anda Cantegrive, nom de plume de Jeanne Dubreuilh, née le 27 septembre 1873 à Bordeaux et morte le 10 avril 1974 à Talence, est une écrivaine de langue française, ayant écrit des romans pour jeunes filles dans la Collection Stella et des romans historiques se situant à Bordeaux.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne Marie Suzanne Dubreuilh est née le 27 septembre 1873 à Bordeaux[3], d'un père médecin. Elle épouse Armand Demelle le 3 octobre 1893 à Bordeaux.
-Elle est membre de la Société des gens de lettres, de la société des écrivains de province et de la Société des bibliophiles de Guyenne. Elle écrit tous ses ouvrages sous le pseudonyme d' Anda Cantegrive. Elle meurt en 1974, à l'âge de 100 ans[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Marie Suzanne Dubreuilh est née le 27 septembre 1873 à Bordeaux, d'un père médecin. Elle épouse Armand Demelle le 3 octobre 1893 à Bordeaux.
+Elle est membre de la Société des gens de lettres, de la société des écrivains de province et de la Société des bibliophiles de Guyenne. Elle écrit tous ses ouvrages sous le pseudonyme d' Anda Cantegrive. Elle meurt en 1974, à l'âge de 100 ans.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heures d'une mère : 1914-1918, Paris, Perrin, 1919, XI-276 p., 19 cm (BNF 31904301)
 Les Échéances : Histoire de Denise Pascal, Paris, Bloud &amp; Gay, 1923, 271 p., 19 cm (BNF 31904300)
